--- a/dataframes.xlsx
+++ b/dataframes.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snegu\Documents\Hacks\Vacancy-Handler-Roskapstroy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002F9BE0-24CE-46D3-82BA-51F4AF23C490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Исходник</t>
+  </si>
   <si>
     <t>Должностные обязанности</t>
   </si>
@@ -23,6 +32,15 @@
   </si>
   <si>
     <t>Требования к соискателю</t>
+  </si>
+  <si>
+    <t>Выполнение работ по гнутью и резке арматурной стали на ручных, электромеханических и электрических станках. Выполнение работ по сборке и вязке арматурных сеток и плоских арматурных каркасов.</t>
+  </si>
+  <si>
+    <t>Вахта в город Москва.  Обязанности: - армирование каркаса;  Требования: - опыт в строительстве приветствуется; - работа в бригаде;  Условия: - продолжительность вахты 60/30 (продление вахты возможно); - Официальное трудоустройство; - ЗП в срок и без задержек; - Авансирование дважды в месяц по 15 000 рублей, 15 и 30 числа; - Питание трехразовое за счет организации; - Выдача спецодежды и Сизов без вычета из заработной платы; - Организованные отправки до объекта (покупка билетов); - Помощь в прохождение медицинского осмотра; - Возможность получить квалификационные удостоверения; - Карьерный рост до бригадира/мастера;</t>
+  </si>
+  <si>
+    <t>Крупной Федеральной Компании для работы ВАХТОВЫМ МЕТОДОМ на строительные участки требуются специалисты:  Обязанности:  · Работы на монолите (заливка бетона, укладка и вязка арматуры)  · Монтажные работы (МК/ЖБК)  · Общестроительные работы и вспомогательные работы  Требования:  · Понимание работы в бригаде  · Дисциплинированность, трудолюбие  · Опыт работы в строительстве будет преимуществом  · (готовы рассмотреть кандидатов и без опыта работы, всему научим, в перспективе карьерный рост до бригадира/мастера участка)  Условия:  · Продолжительность вахты 60/30, 90/30 (можно больше)  · Официальное трудоустройство по ТК РФ с первой рабочей смены  · ЗП строго в срок и без задержек (документальное подтверждение в трудовом договоре)  · Авансирование (15 и 30го числа каждого месяца по 15000 р.)  · Обеспечим сезонной спецодеждой и СИЗами без вычетов из ЗП  · Организованное трехраховое горячее питание за счет компании  · Организованные отправки до объектов (покупаем билеты на вахту/с вахты)  · Помощь в прохождении мед. осмотра (при необходимости)  · Возможность получить квалификационное удостоверение (обучение основным и смежным специальностям в нашем аккредитованном учебном центре)</t>
   </si>
   <si>
     <t>Выполнение работ по гнутью и резке арматурной стали на ручных, электромеханических и электрических станках  Выполнение работ по сборке и вязке арматурных сеток и плоских арматурных каркасов</t>
@@ -49,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,24 +120,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,9 +186,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +220,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,9 +272,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,14 +465,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" customWidth="1"/>
+    <col min="5" max="5" width="44.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,41 +490,55 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" ht="288" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/dataframes.xlsx
+++ b/dataframes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snegu\Documents\Hacks\Vacancy-Handler-Roskapstroy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002F9BE0-24CE-46D3-82BA-51F4AF23C490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E623B4E-865A-4274-98B6-1B7DF46E9F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -466,78 +466,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.5546875" customWidth="1"/>
-    <col min="3" max="3" width="40.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" customWidth="1"/>
-    <col min="5" max="5" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="288" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0</v>
+    <row r="3" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0</v>
+    <row r="4" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
